--- a/biology/Médecine/Fascia_plantaire/Fascia_plantaire.xlsx
+++ b/biology/Médecine/Fascia_plantaire/Fascia_plantaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fascia plantaire (ou aponévrose plantaire) est l'aponévrose épaisse qui recouvre les muscles superficiels des trois groupes musculaires de la région plantaire.
 </t>
@@ -511,53 +523,197 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fascia plantaire comporte trois portions : les aponévroses plantaires latérale, moyenne et médiale.
-Aponévrose plantaire latérale
-La portion latérale ferme la loge plantaire latérale. Elle est mince à l'arrière et s'épaissit vers l'avant.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Fascia_plantaire</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fascia_plantaire</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Aponévrose plantaire latérale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La portion latérale ferme la loge plantaire latérale. Elle est mince à l'arrière et s'épaissit vers l'avant.
 En arrière, elle se fixe sur le processus latéral de la tubérosité calcanéenne.
 A l'avant, elle se fusionne avec l'aponévrose plantaire moyenne et se continue avec la gaine tendineuse des fléchisseurs du cinquième orteil.
 Latéralement une expansion se fixe sur la face plantaire du cinquième métatarsien formant le ligament calcanéo-métatarsien.
-Aponévrose plantaire moyenne
-La portion moyenne est épaisse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fascia_plantaire</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fascia_plantaire</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Aponévrose plantaire moyenne</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La portion moyenne est épaisse.
 Elle se fixe à l'arrière au calcanéus et à l'avant aux articulations métatarso-phalangiennes. Médialement et latéralement, elle est en continuité avec les aponévroses plantaires médiale et latérale.
-Elle est constituée de fibres longitudinales renforcées au regard des bandelettes prétendineuses. Des fibres transversales constituent les faisceaux transverses de l'aponévrose plantaire formant le ligament métatarsien transverse superficiel[1] (ou ligament transverse superficiel de la plante ou ligament transverse superficiel du pied) au regard des articulations métatarso-phalangiennes.
-Aponévrose plantaire médiale
-La portion médiale ferme la loge plantaire médiale. Elle est mince à l'arrière et s'épaissit vers l'avant.
+Elle est constituée de fibres longitudinales renforcées au regard des bandelettes prétendineuses. Des fibres transversales constituent les faisceaux transverses de l'aponévrose plantaire formant le ligament métatarsien transverse superficiel (ou ligament transverse superficiel de la plante ou ligament transverse superficiel du pied) au regard des articulations métatarso-phalangiennes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fascia_plantaire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fascia_plantaire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Aponévrose plantaire médiale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La portion médiale ferme la loge plantaire médiale. Elle est mince à l'arrière et s'épaissit vers l'avant.
 En arrière, elle se fixe sur le processus médial de la tubérosité calcanéenne.
 A l'avant, elle se fusionne avec l'aponévrose plantaire moyenne et se continue avec la gaine tendineuse des fléchisseurs du premier orteil.
-Évolution
-Chez les personnes plus jeunes, le fascia plantaire est également intimement lié au tendon calcanéen au niveau du tubercule calcanéen. Cette continuité diminue avec l’âge voire disparait complétement chez les personnes âgées.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Fascia_plantaire</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Fascia_plantaire</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Évolution</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez les personnes plus jeunes, le fascia plantaire est également intimement lié au tendon calcanéen au niveau du tubercule calcanéen. Cette continuité diminue avec l’âge voire disparait complétement chez les personnes âgées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fascia_plantaire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fascia_plantaire</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fascia plantaire contribue au maintien de la voûte plantaire en agissant comme un tirant, où il subit une tension lorsque le pied supporte du poids.
 Le fascia plantaire joue également un rôle important dans la fonction dynamique de la marche en agissant comme un ressort en aidant à conserver l’énergie.
@@ -565,36 +721,38 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Fascia_plantaire</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Fascia_plantaire</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fascia plantaire peut subir un processus dégénératif souvent douloureux : l'aponévrosite plantaire.
 Il peut aussi être le siège d'un épaississement bénin dans la maladie de Ledderhose.
 Le rhumatisme psoriasique peut affecter le fascia plantaire.
-La déchirure totale ou partielle du fascia plantaire est relativement rare[2].
+La déchirure totale ou partielle du fascia plantaire est relativement rare.
 </t>
         </is>
       </c>
